--- a/05 테스팅/테스트케이스.xlsx
+++ b/05 테스팅/테스트케이스.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJH\Downloads\4_ 테스트케이스 및 테스트결과보고서\4_ 테스트케이스 및 테스트결과보고서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\KJH\Documents\GitHub\2018_Capstone_D.VA_Doc\05 테스팅\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B379A3B-DF03-4238-8F1C-5D9DB27F8D27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FD891C-C97C-4A40-A405-F1254523413B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
@@ -676,12 +676,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UC-001
-~
-UC-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>v.1.0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -735,6 +729,11 @@
   </si>
   <si>
     <t>&lt; D.Va&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC-001 - UC-011
+유스케이스 전체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1110,53 +1109,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1474,7 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1492,17 +1491,17 @@
     <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="D4" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="17"/>
@@ -1522,115 +1521,115 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>42495</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="12" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="34">
+        <v>42527</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="35">
-        <v>42527</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="34">
+        <v>42528</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="34">
+        <v>42531</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="34">
+        <v>42533</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="35">
-        <v>42528</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="35">
-        <v>42531</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="35">
-        <v>42533</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="35">
+      <c r="A14" s="34">
         <v>42534</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="34">
+        <v>42541</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="35">
-        <v>42541</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="35">
+      <c r="A16" s="34">
         <v>42548</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -1719,9 +1718,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1729,7 +1728,7 @@
     <col min="1" max="1" width="5.19921875" customWidth="1"/>
     <col min="2" max="2" width="16.59765625" customWidth="1"/>
     <col min="3" max="3" width="17.69921875" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
+    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.69921875" customWidth="1"/>
     <col min="6" max="6" width="17.69921875" customWidth="1"/>
     <col min="7" max="7" width="25.69921875" customWidth="1"/>
@@ -1810,22 +1809,22 @@
       <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="5">
         <v>987654321</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>43225</v>
       </c>
       <c r="K8" s="5" t="s">
@@ -1842,55 +1841,55 @@
       <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="5">
         <v>987654321</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="25" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>43225</v>
       </c>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="24">
         <v>43256</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="23" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1901,28 +1900,28 @@
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="24">
         <v>43257</v>
       </c>
-      <c r="K11" s="27"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
@@ -1940,7 +1939,7 @@
       <c r="F12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="25" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -1949,7 +1948,7 @@
       <c r="I12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>43225</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -1972,7 +1971,7 @@
       <c r="F13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="25" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1981,7 +1980,7 @@
       <c r="I13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <v>43225</v>
       </c>
       <c r="K13" s="5"/>
@@ -2002,7 +2001,7 @@
       <c r="F14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -2011,7 +2010,7 @@
       <c r="I14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>43257</v>
       </c>
       <c r="K14" s="5"/>
@@ -2032,7 +2031,7 @@
       <c r="F15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="25" t="s">
         <v>52</v>
       </c>
       <c r="H15" s="5" t="s">
@@ -2041,7 +2040,7 @@
       <c r="I15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="22">
         <v>43257</v>
       </c>
       <c r="K15" s="5"/>
@@ -2062,7 +2061,7 @@
       <c r="F16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>56</v>
       </c>
       <c r="H16" s="5" t="s">
@@ -2071,7 +2070,7 @@
       <c r="I16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <v>43258</v>
       </c>
       <c r="K16" s="5"/>
@@ -2092,7 +2091,7 @@
       <c r="F17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="25" t="s">
         <v>56</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -2101,7 +2100,7 @@
       <c r="I17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="22">
         <v>43258</v>
       </c>
       <c r="K17" s="5"/>
@@ -2122,7 +2121,7 @@
       <c r="F18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="25" t="s">
         <v>56</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -2131,7 +2130,7 @@
       <c r="I18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <v>43258</v>
       </c>
       <c r="K18" s="5"/>
@@ -2152,7 +2151,7 @@
       <c r="F19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="25" t="s">
         <v>56</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -2161,7 +2160,7 @@
       <c r="I19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <v>43258</v>
       </c>
       <c r="K19" s="5"/>
@@ -2182,7 +2181,7 @@
       <c r="F20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="25" t="s">
         <v>56</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -2191,7 +2190,7 @@
       <c r="I20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="22">
         <v>43258</v>
       </c>
       <c r="K20" s="5"/>
@@ -2221,7 +2220,7 @@
       <c r="I21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="22">
         <v>43258</v>
       </c>
       <c r="K21" s="5"/>
@@ -2251,7 +2250,7 @@
       <c r="I22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>43258</v>
       </c>
       <c r="K22" s="5"/>
@@ -2281,7 +2280,7 @@
       <c r="I23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="22">
         <v>43258</v>
       </c>
       <c r="K23" s="5"/>
@@ -2311,7 +2310,7 @@
       <c r="I24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="22">
         <v>43258</v>
       </c>
       <c r="K24" s="5"/>
@@ -2341,7 +2340,7 @@
       <c r="I25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="22">
         <v>43258</v>
       </c>
       <c r="K25" s="5"/>
@@ -2362,7 +2361,7 @@
       <c r="F26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="25" t="s">
         <v>88</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -2371,7 +2370,7 @@
       <c r="I26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="22">
         <v>43258</v>
       </c>
       <c r="K26" s="5"/>
@@ -2380,28 +2379,28 @@
       <c r="B27" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="H27" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="I27" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="21">
         <v>43258</v>
       </c>
       <c r="K27" s="4"/>
@@ -2410,28 +2409,28 @@
       <c r="B28" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="29" t="s">
+      <c r="G28" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="I28" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="21">
         <v>43261</v>
       </c>
       <c r="K28" s="4"/>
@@ -2440,28 +2439,28 @@
       <c r="B29" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="21">
         <v>43261</v>
       </c>
       <c r="K29" s="4"/>
@@ -2470,148 +2469,148 @@
       <c r="B30" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="I30" s="28" t="s">
+      <c r="I30" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="21">
         <v>43261</v>
       </c>
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="2:11" ht="87" x14ac:dyDescent="0.4">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="E31" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G31" s="29" t="s">
+      <c r="G31" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="I31" s="28" t="s">
+      <c r="I31" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="21">
         <v>43263</v>
       </c>
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="G32" s="29" t="s">
+      <c r="G32" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="28" t="s">
+      <c r="I32" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="21">
         <v>43264</v>
       </c>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="H33" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="I33" s="28" t="s">
+      <c r="I33" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="21">
         <v>43271</v>
       </c>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B34" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" s="28" t="s">
+      <c r="B34" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="29" t="s">
+      <c r="E34" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="33" t="s">
+      <c r="F34" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="I34" s="28" t="s">
+      <c r="I34" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="22">
+      <c r="J34" s="21">
         <v>43278</v>
       </c>
       <c r="K34" s="4"/>

--- a/05 테스팅/테스트케이스.xlsx
+++ b/05 테스팅/테스트케이스.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\KJH\Documents\GitHub\2018_Capstone_D.VA_Doc\05 테스팅\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJH\Downloads\4_ 테스트케이스 및 테스트결과보고서\4_ 테스트케이스 및 테스트결과보고서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FD891C-C97C-4A40-A405-F1254523413B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B379A3B-DF03-4238-8F1C-5D9DB27F8D27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12168" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="이력" sheetId="2" r:id="rId1"/>
@@ -676,6 +676,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>UC-001
+~
+UC-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>v.1.0.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -729,11 +735,6 @@
   </si>
   <si>
     <t>&lt; D.Va&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UC-001 - UC-011
-유스케이스 전체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1109,6 +1110,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1153,9 +1157,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1473,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1491,17 +1492,17 @@
     <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="D4" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="17"/>
@@ -1521,115 +1522,115 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="20">
+      <c r="A9" s="21">
         <v>42495</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="35">
+        <v>42527</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="35">
+        <v>42528</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="34">
-        <v>42527</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="34">
-        <v>42528</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="35">
+        <v>42531</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="35">
+        <v>42533</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="34">
-        <v>42531</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="34">
-        <v>42533</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="34">
+      <c r="A14" s="35">
         <v>42534</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="34">
+      <c r="A15" s="35">
         <v>42541</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>125</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="34">
+      <c r="A16" s="35">
         <v>42548</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -1718,9 +1719,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1728,7 +1729,7 @@
     <col min="1" max="1" width="5.19921875" customWidth="1"/>
     <col min="2" max="2" width="16.59765625" customWidth="1"/>
     <col min="3" max="3" width="17.69921875" customWidth="1"/>
-    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
     <col min="5" max="5" width="30.69921875" customWidth="1"/>
     <col min="6" max="6" width="17.69921875" customWidth="1"/>
     <col min="7" max="7" width="25.69921875" customWidth="1"/>
@@ -1809,22 +1810,22 @@
       <c r="D8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="26" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="5">
         <v>987654321</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="26" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="23">
         <v>43225</v>
       </c>
       <c r="K8" s="5" t="s">
@@ -1841,55 +1842,55 @@
       <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="26" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="5">
         <v>987654321</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="26" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="23">
         <v>43225</v>
       </c>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="25">
         <v>43256</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1900,28 +1901,28 @@
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="25">
         <v>43257</v>
       </c>
-      <c r="K11" s="26"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B12" s="5" t="s">
@@ -1939,7 +1940,7 @@
       <c r="F12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="26" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -1948,7 +1949,7 @@
       <c r="I12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="23">
         <v>43225</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -1971,7 +1972,7 @@
       <c r="F13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="26" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1980,7 +1981,7 @@
       <c r="I13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="23">
         <v>43225</v>
       </c>
       <c r="K13" s="5"/>
@@ -2001,7 +2002,7 @@
       <c r="F14" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="26" t="s">
         <v>47</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -2010,7 +2011,7 @@
       <c r="I14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="23">
         <v>43257</v>
       </c>
       <c r="K14" s="5"/>
@@ -2031,7 +2032,7 @@
       <c r="F15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="26" t="s">
         <v>52</v>
       </c>
       <c r="H15" s="5" t="s">
@@ -2040,7 +2041,7 @@
       <c r="I15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="23">
         <v>43257</v>
       </c>
       <c r="K15" s="5"/>
@@ -2061,7 +2062,7 @@
       <c r="F16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="26" t="s">
         <v>56</v>
       </c>
       <c r="H16" s="5" t="s">
@@ -2070,7 +2071,7 @@
       <c r="I16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="23">
         <v>43258</v>
       </c>
       <c r="K16" s="5"/>
@@ -2091,7 +2092,7 @@
       <c r="F17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="26" t="s">
         <v>56</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -2100,7 +2101,7 @@
       <c r="I17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="23">
         <v>43258</v>
       </c>
       <c r="K17" s="5"/>
@@ -2121,7 +2122,7 @@
       <c r="F18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="G18" s="26" t="s">
         <v>56</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -2130,7 +2131,7 @@
       <c r="I18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="23">
         <v>43258</v>
       </c>
       <c r="K18" s="5"/>
@@ -2151,7 +2152,7 @@
       <c r="F19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="26" t="s">
         <v>56</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -2160,7 +2161,7 @@
       <c r="I19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="23">
         <v>43258</v>
       </c>
       <c r="K19" s="5"/>
@@ -2181,7 +2182,7 @@
       <c r="F20" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="26" t="s">
         <v>56</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -2190,7 +2191,7 @@
       <c r="I20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="23">
         <v>43258</v>
       </c>
       <c r="K20" s="5"/>
@@ -2220,7 +2221,7 @@
       <c r="I21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="23">
         <v>43258</v>
       </c>
       <c r="K21" s="5"/>
@@ -2250,7 +2251,7 @@
       <c r="I22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="23">
         <v>43258</v>
       </c>
       <c r="K22" s="5"/>
@@ -2280,7 +2281,7 @@
       <c r="I23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="23">
         <v>43258</v>
       </c>
       <c r="K23" s="5"/>
@@ -2310,7 +2311,7 @@
       <c r="I24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="23">
         <v>43258</v>
       </c>
       <c r="K24" s="5"/>
@@ -2340,7 +2341,7 @@
       <c r="I25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="23">
         <v>43258</v>
       </c>
       <c r="K25" s="5"/>
@@ -2361,7 +2362,7 @@
       <c r="F26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="26" t="s">
         <v>88</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -2370,7 +2371,7 @@
       <c r="I26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="23">
         <v>43258</v>
       </c>
       <c r="K26" s="5"/>
@@ -2379,28 +2380,28 @@
       <c r="B27" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J27" s="21">
+      <c r="J27" s="22">
         <v>43258</v>
       </c>
       <c r="K27" s="4"/>
@@ -2409,28 +2410,28 @@
       <c r="B28" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="I28" s="27" t="s">
+      <c r="I28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J28" s="21">
+      <c r="J28" s="22">
         <v>43261</v>
       </c>
       <c r="K28" s="4"/>
@@ -2439,28 +2440,28 @@
       <c r="B29" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H29" s="27" t="s">
+      <c r="H29" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="I29" s="27" t="s">
+      <c r="I29" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="21">
+      <c r="J29" s="22">
         <v>43261</v>
       </c>
       <c r="K29" s="4"/>
@@ -2469,148 +2470,148 @@
       <c r="B30" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="I30" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="22">
         <v>43261</v>
       </c>
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="2:11" ht="87" x14ac:dyDescent="0.4">
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="H31" s="27" t="s">
+      <c r="H31" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="I31" s="27" t="s">
+      <c r="I31" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="22">
         <v>43263</v>
       </c>
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="2:11" ht="104.4" x14ac:dyDescent="0.4">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G32" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="H32" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I32" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="22">
         <v>43264</v>
       </c>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="2:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="G33" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="H33" s="31" t="s">
+      <c r="H33" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="I33" s="27" t="s">
+      <c r="I33" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="22">
         <v>43271</v>
       </c>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="B34" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="C34" s="27" t="s">
+      <c r="B34" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="G34" s="28" t="s">
+      <c r="G34" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="H34" s="28" t="s">
+      <c r="H34" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="I34" s="27" t="s">
+      <c r="I34" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="22">
         <v>43278</v>
       </c>
       <c r="K34" s="4"/>
